--- a/trending-stock/doc/收益率.xlsx
+++ b/trending-stock/doc/收益率.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanse\Desktop\testChoice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanse\Desktop\repo\python-for-backtest\trending-stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E203CEA-6D4A-4EE0-847F-147DE65442F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BE333D-A14D-4F77-9AC9-910DFF24CD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28702" yWindow="1763" windowWidth="23235" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,19 +58,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持仓增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持仓减少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增持仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>移除持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上涨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下跌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,13 +127,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF64C864"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8282"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,26 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -181,6 +169,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -190,12 +179,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFC8C8"/>
+      <color rgb="FFC8FFC8"/>
+      <color rgb="FF64C864"/>
       <color rgb="FFFF8282"/>
       <color rgb="FFFF9696"/>
       <color rgb="FFC86464"/>
-      <color rgb="FF64C864"/>
-      <color rgb="FFFFC8C8"/>
-      <color rgb="FFC8FFC8"/>
       <color rgb="FF00C800"/>
     </mruColors>
   </colors>
@@ -300,22 +289,22 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$20:$A$1017</c:f>
+              <c:f>Sheet1!$A$20:$A$973</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="954"/>
                 <c:pt idx="0">
-                  <c:v>45193</c:v>
+                  <c:v>45207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$20:$C$1017</c:f>
+              <c:f>Sheet1!$C$20:$C$973</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="998"/>
+                <c:ptCount val="954"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -807,143 +796,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A17:N28"/>
+  <dimension ref="A17:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>1000000</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18"/>
-      <c r="C18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="16">
-        <v>45193</v>
-      </c>
-      <c r="B20" s="17">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>45207</v>
+      </c>
+      <c r="B20" s="11">
         <v>0</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="11">
         <v>0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="9">
         <v>1000000</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="9">
         <v>1000000</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="9">
         <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
+      <c r="G22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N26" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N28" s="2"/>
+      <c r="G23">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
